--- a/data/trans_orig/P2C_R2-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P2C_R2-Habitat-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>214277</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>190404</v>
+        <v>190332</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>241147</v>
+        <v>237619</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3087513435049994</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2743524061363121</v>
+        <v>0.2742495043958281</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3474675437552462</v>
+        <v>0.3423841640201405</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>256</v>
@@ -765,19 +765,19 @@
         <v>261595</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>237704</v>
+        <v>236419</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>289694</v>
+        <v>285424</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3800317781691612</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3453243714154463</v>
+        <v>0.3434571472681884</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4208514588982668</v>
+        <v>0.4146484935784614</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>466</v>
@@ -786,19 +786,19 @@
         <v>475872</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>440643</v>
+        <v>443545</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>511924</v>
+        <v>513850</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3442456059019127</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3187607932710194</v>
+        <v>0.3208603463825</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3703249699943294</v>
+        <v>0.3717183362776837</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>479735</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>452865</v>
+        <v>456393</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>503608</v>
+        <v>503680</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6912486564950006</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6525324562447536</v>
+        <v>0.6576158359798595</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7256475938636878</v>
+        <v>0.7257504956041719</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>440</v>
@@ -836,19 +836,19 @@
         <v>426756</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>398657</v>
+        <v>402927</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>450647</v>
+        <v>451932</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6199682218308388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5791485411017333</v>
+        <v>0.5853515064215385</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6546756285845539</v>
+        <v>0.6565428527318116</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>913</v>
@@ -857,19 +857,19 @@
         <v>906491</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>870439</v>
+        <v>868513</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>941720</v>
+        <v>938818</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6557543940980873</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6296750300056706</v>
+        <v>0.6282816637223163</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6812392067289806</v>
+        <v>0.6791396536174999</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>294991</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>267244</v>
+        <v>265610</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>325666</v>
+        <v>325811</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3067068679135133</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2778583474822074</v>
+        <v>0.2761596533835206</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3386007627075139</v>
+        <v>0.3387510685639611</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>318</v>
@@ -982,19 +982,19 @@
         <v>337226</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>308243</v>
+        <v>306786</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>365808</v>
+        <v>367848</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.348233062315756</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3183033801418185</v>
+        <v>0.3167987567324659</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3777470156154327</v>
+        <v>0.3798539793867969</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>593</v>
@@ -1003,19 +1003,19 @@
         <v>632217</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>590008</v>
+        <v>591066</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>674713</v>
+        <v>674465</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3275408866199939</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3056729372289734</v>
+        <v>0.3062210191700284</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3495574474878928</v>
+        <v>0.3494289505719472</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>666809</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>636134</v>
+        <v>635989</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>694556</v>
+        <v>696190</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6932931320864868</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6613992372924862</v>
+        <v>0.6612489314360389</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7221416525177926</v>
+        <v>0.7238403466164794</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>590</v>
@@ -1053,19 +1053,19 @@
         <v>631167</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>602585</v>
+        <v>600545</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>660150</v>
+        <v>661607</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.651766937684244</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6222529843845673</v>
+        <v>0.6201460206132022</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6816966198581815</v>
+        <v>0.6832012432675341</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1211</v>
@@ -1074,19 +1074,19 @@
         <v>1297976</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1255480</v>
+        <v>1255728</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1340185</v>
+        <v>1339127</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6724591133800062</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6504425525121071</v>
+        <v>0.6505710494280527</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6943270627710265</v>
+        <v>0.6937789808299716</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>193518</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>170325</v>
+        <v>170441</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>217744</v>
+        <v>217556</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2852106135143485</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.251028496532118</v>
+        <v>0.2511988785387407</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3209156960822903</v>
+        <v>0.3206380300595918</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>227</v>
@@ -1199,19 +1199,19 @@
         <v>229162</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>206408</v>
+        <v>203576</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>255256</v>
+        <v>253019</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3351094164030002</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3018358830265869</v>
+        <v>0.2976945127835692</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3732682398579105</v>
+        <v>0.3699975401625029</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>409</v>
@@ -1220,19 +1220,19 @@
         <v>422680</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>393088</v>
+        <v>391358</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>458414</v>
+        <v>458199</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3102576647820314</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2885366373735312</v>
+        <v>0.287266716171258</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3364880298807398</v>
+        <v>0.3363299179769026</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>484991</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>460765</v>
+        <v>460953</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>508184</v>
+        <v>508068</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7147893864856515</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6790843039177098</v>
+        <v>0.6793619699404081</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.748971503467882</v>
+        <v>0.7488011214612593</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>469</v>
@@ -1270,19 +1270,19 @@
         <v>454679</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>428585</v>
+        <v>430822</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>477433</v>
+        <v>480265</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6648905835969998</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6267317601420895</v>
+        <v>0.6300024598374971</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6981641169734131</v>
+        <v>0.7023054872164307</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>928</v>
@@ -1291,19 +1291,19 @@
         <v>939670</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>903936</v>
+        <v>904151</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>969262</v>
+        <v>970992</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6897423352179686</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6635119701192601</v>
+        <v>0.6636700820230975</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7114633626264688</v>
+        <v>0.712733283828742</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>252647</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>226262</v>
+        <v>226245</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>280074</v>
+        <v>278475</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2681399101989534</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2401362336216276</v>
+        <v>0.2401183112197644</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2972487393523225</v>
+        <v>0.2955518065593663</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>326</v>
@@ -1416,19 +1416,19 @@
         <v>338941</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>308408</v>
+        <v>309196</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>369264</v>
+        <v>370125</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3263398876515168</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2969428773433009</v>
+        <v>0.2977012926304301</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3555363188852515</v>
+        <v>0.3563646363012994</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>587</v>
@@ -1437,19 +1437,19 @@
         <v>591588</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>552370</v>
+        <v>551365</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>633935</v>
+        <v>631844</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2986559413865129</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2788571670100445</v>
+        <v>0.2783497693071478</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.320034220956598</v>
+        <v>0.3189786875581341</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>689575</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>662148</v>
+        <v>663747</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>715960</v>
+        <v>715977</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7318600898010467</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7027512606476775</v>
+        <v>0.7044481934406337</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7598637663783724</v>
+        <v>0.7598816887802357</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>671</v>
@@ -1487,19 +1487,19 @@
         <v>699671</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>669348</v>
+        <v>668487</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>730204</v>
+        <v>729416</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6736601123484832</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6444636811147485</v>
+        <v>0.6436353636987007</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7030571226566992</v>
+        <v>0.7022987073695699</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1404</v>
@@ -1508,19 +1508,19 @@
         <v>1389246</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1346899</v>
+        <v>1348990</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1428464</v>
+        <v>1429469</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.701344058613487</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6799657790434019</v>
+        <v>0.6810213124418658</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7211428329899554</v>
+        <v>0.7216502306928522</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>955433</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>904714</v>
+        <v>904918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1005061</v>
+        <v>1013183</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2915979110211142</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2761184462465214</v>
+        <v>0.2761808669706685</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3067442804999569</v>
+        <v>0.3092231833609704</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1127</v>
@@ -1633,19 +1633,19 @@
         <v>1166924</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1111440</v>
+        <v>1111799</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1221930</v>
+        <v>1225607</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3453257670591905</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.328906436686189</v>
+        <v>0.3290128291786754</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3616037976298744</v>
+        <v>0.3626918066934735</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2055</v>
@@ -1654,19 +1654,19 @@
         <v>2122357</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2037981</v>
+        <v>2047268</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2190841</v>
+        <v>2201105</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3188761714903631</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3061989827960247</v>
+        <v>0.3075943485142042</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3291655942423995</v>
+        <v>0.3307077488160163</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>2321110</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2271482</v>
+        <v>2263360</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2371829</v>
+        <v>2371625</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7084020889788859</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6932557195000432</v>
+        <v>0.6907768166390297</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7238815537534786</v>
+        <v>0.7238191330293314</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2170</v>
@@ -1704,19 +1704,19 @@
         <v>2212273</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2157267</v>
+        <v>2153590</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2267757</v>
+        <v>2267398</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6546742329408095</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6383962023701257</v>
+        <v>0.6373081933065268</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.671093563313811</v>
+        <v>0.6709871708213252</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4456</v>
@@ -1725,19 +1725,19 @@
         <v>4533384</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4464900</v>
+        <v>4454636</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4617760</v>
+        <v>4608473</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6811238285096369</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6708344057576006</v>
+        <v>0.6692922511839836</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6938010172039754</v>
+        <v>0.6924056514857959</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>329943</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>304527</v>
+        <v>302637</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>356001</v>
+        <v>357083</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4690227338821654</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4328926166246971</v>
+        <v>0.4302070235259657</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5060649598251592</v>
+        <v>0.5076031247072993</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>339</v>
@@ -2090,19 +2090,19 @@
         <v>362937</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>335985</v>
+        <v>335993</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>390707</v>
+        <v>390566</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5206757259833157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4820095181514249</v>
+        <v>0.4820215464043929</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5605148335852397</v>
+        <v>0.5603125536014704</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>656</v>
@@ -2111,19 +2111,19 @@
         <v>692880</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>654772</v>
+        <v>652448</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>732416</v>
+        <v>731480</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4947308597061302</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.467521314611744</v>
+        <v>0.4658614504584039</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5229601989150993</v>
+        <v>0.5222921265746097</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>373526</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>347468</v>
+        <v>346386</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>398942</v>
+        <v>400832</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5309772661178346</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.4939350401748407</v>
+        <v>0.4923968752927007</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.5671073833753026</v>
+        <v>0.5697929764740343</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>311</v>
@@ -2161,19 +2161,19 @@
         <v>334113</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>306343</v>
+        <v>306484</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>361065</v>
+        <v>361057</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4793242740166843</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4394851664147604</v>
+        <v>0.4396874463985298</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.5179904818485752</v>
+        <v>0.5179784535956071</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>668</v>
@@ -2182,19 +2182,19 @@
         <v>707639</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>668103</v>
+        <v>669039</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>745747</v>
+        <v>748071</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5052691402938698</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4770398010849008</v>
+        <v>0.4777078734253904</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.5324786853882563</v>
+        <v>0.5341385495415961</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>493025</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>459871</v>
+        <v>460045</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>523525</v>
+        <v>525060</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4843328337549277</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4517627444371098</v>
+        <v>0.4519340764844064</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5142946343418388</v>
+        <v>0.5158026451146133</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>521</v>
@@ -2307,19 +2307,19 @@
         <v>572935</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>538531</v>
+        <v>540753</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>608241</v>
+        <v>607339</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.55507099769163</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5217390467216522</v>
+        <v>0.5238924178850995</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.5892755315571239</v>
+        <v>0.5884017247008037</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>973</v>
@@ -2328,19 +2328,19 @@
         <v>1065961</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>1019923</v>
+        <v>1021069</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>1112584</v>
+        <v>1110637</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5199475318419328</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.4974915135779494</v>
+        <v>0.4980505547601631</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.542689401540136</v>
+        <v>0.5417397399053953</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>524922</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>494422</v>
+        <v>492887</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>558076</v>
+        <v>557902</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5156671662450723</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4857053656581612</v>
+        <v>0.4841973548853867</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5482372555628903</v>
+        <v>0.5480659235155937</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>419</v>
@@ -2378,19 +2378,19 @@
         <v>459249</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>423943</v>
+        <v>424845</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>493653</v>
+        <v>491431</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.44492900230837</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4107244684428761</v>
+        <v>0.4115982752991967</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.478260953278348</v>
+        <v>0.4761075821149006</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>903</v>
@@ -2399,19 +2399,19 @@
         <v>984170</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>937547</v>
+        <v>939494</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1030208</v>
+        <v>1029062</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4800524681580672</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4573105984598639</v>
+        <v>0.4582602600946046</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5025084864220503</v>
+        <v>0.5019494452398368</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>338312</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>312439</v>
+        <v>310018</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>368314</v>
+        <v>368722</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4465437555821689</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4123932265073598</v>
+        <v>0.4091984760726558</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4861438220929158</v>
+        <v>0.4866820607892542</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>380</v>
@@ -2524,19 +2524,19 @@
         <v>413206</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>383833</v>
+        <v>384099</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>443381</v>
+        <v>446211</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.5316778424895736</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4938831658907505</v>
+        <v>0.4942249666466751</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.5705037325870301</v>
+        <v>0.5741461685471217</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>693</v>
@@ -2545,19 +2545,19 @@
         <v>751518</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>709565</v>
+        <v>708971</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>794900</v>
+        <v>787188</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4896530303408731</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4623186250627586</v>
+        <v>0.4619312563689737</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.5179186440793675</v>
+        <v>0.5128941683184899</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>419311</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>389309</v>
+        <v>388901</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>445184</v>
+        <v>447605</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.553456244417831</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5138561779070844</v>
+        <v>0.5133179392107458</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5876067734926403</v>
+        <v>0.5908015239273442</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>325</v>
@@ -2595,19 +2595,19 @@
         <v>363968</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>333793</v>
+        <v>330963</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>393341</v>
+        <v>393075</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.4683221575104264</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.4294962674129699</v>
+        <v>0.4258538314528783</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5061168341092495</v>
+        <v>0.5057750333533249</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>701</v>
@@ -2616,19 +2616,19 @@
         <v>783279</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>739897</v>
+        <v>747609</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>825232</v>
+        <v>825826</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5103469696591268</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4820813559206325</v>
+        <v>0.4871058316815101</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5376813749372414</v>
+        <v>0.5380687436310263</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>373307</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>342798</v>
+        <v>341736</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>402859</v>
+        <v>402720</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3938923740845654</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3617010562494107</v>
+        <v>0.3605799497926797</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.425074142728828</v>
+        <v>0.4249273586143978</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>467</v>
@@ -2741,19 +2741,19 @@
         <v>486762</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>456275</v>
+        <v>456628</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>519015</v>
+        <v>520059</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.462745278743805</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4337618659238198</v>
+        <v>0.4340974981542847</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4934064954555221</v>
+        <v>0.4943988664984527</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>829</v>
@@ -2762,19 +2762,19 @@
         <v>860069</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>815623</v>
+        <v>816390</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>905625</v>
+        <v>908111</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4301121066672347</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4078849445765987</v>
+        <v>0.4082683513717378</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4528938505441656</v>
+        <v>0.4541370209027053</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>574432</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>544880</v>
+        <v>545019</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>604941</v>
+        <v>606003</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6061076259154347</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5749258572711721</v>
+        <v>0.5750726413856022</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6382989437505894</v>
+        <v>0.6394200502073203</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>536</v>
@@ -2812,19 +2812,19 @@
         <v>565139</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>532886</v>
+        <v>531842</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>595626</v>
+        <v>595273</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.537254721256195</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5065935045444778</v>
+        <v>0.5056011335015475</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.56623813407618</v>
+        <v>0.5659025018457153</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1084</v>
@@ -2833,19 +2833,19 @@
         <v>1139571</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1094015</v>
+        <v>1091529</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1184017</v>
+        <v>1183250</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5698878933327653</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5471061494558344</v>
+        <v>0.5458629790972949</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5921150554234011</v>
+        <v>0.5917316486282623</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>1534588</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1475591</v>
+        <v>1472934</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1593485</v>
+        <v>1591357</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.4478221457369024</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4306056819988066</v>
+        <v>0.4298303422497715</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4650094289289327</v>
+        <v>0.4643886383334656</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1707</v>
@@ -2958,19 +2958,19 @@
         <v>1835841</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1775902</v>
+        <v>1769058</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1898971</v>
+        <v>1897674</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.515930694634338</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4990858184093719</v>
+        <v>0.4971624396607692</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5336722321268663</v>
+        <v>0.5333077586825593</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3151</v>
@@ -2979,19 +2979,19 @@
         <v>3370428</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>3286198</v>
+        <v>3285508</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>3460966</v>
+        <v>3455978</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4825176671571776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4704590687935061</v>
+        <v>0.470360250276911</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4954792255067716</v>
+        <v>0.494765130717205</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>1892191</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1833294</v>
+        <v>1835422</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1951188</v>
+        <v>1953845</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5521778542630976</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5349905710710674</v>
+        <v>0.5356113616665346</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5693943180011938</v>
+        <v>0.5701696577502285</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1591</v>
@@ -3029,19 +3029,19 @@
         <v>1722468</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1659338</v>
+        <v>1660635</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1782407</v>
+        <v>1789251</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4840693053656619</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4663277678731337</v>
+        <v>0.4666922413174407</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5009141815906282</v>
+        <v>0.502837560339231</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3356</v>
@@ -3050,19 +3050,19 @@
         <v>3614660</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>3524122</v>
+        <v>3529110</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>3698890</v>
+        <v>3699580</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5174823328428224</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5045207744932287</v>
+        <v>0.505234869282795</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.529540931206494</v>
+        <v>0.529639749723089</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>228754</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>206312</v>
+        <v>202861</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>256107</v>
+        <v>254872</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3389946088669597</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3057376727070662</v>
+        <v>0.3006241440746744</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3795299481698971</v>
+        <v>0.3777006759189926</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>247</v>
@@ -3415,19 +3415,19 @@
         <v>248483</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>226051</v>
+        <v>222181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>273330</v>
+        <v>274351</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3693059083695404</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3359659466177385</v>
+        <v>0.3302146842611333</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4062335769416298</v>
+        <v>0.4077506119365186</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>468</v>
@@ -3436,19 +3436,19 @@
         <v>477237</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>441834</v>
+        <v>443572</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>512669</v>
+        <v>512752</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3541282050425272</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3278574848325171</v>
+        <v>0.3291475676865261</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3804199505285145</v>
+        <v>0.3804818327712843</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>446046</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>418693</v>
+        <v>419928</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>468488</v>
+        <v>471939</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6610053911330402</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.620470051830103</v>
+        <v>0.6222993240810074</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6942623272929335</v>
+        <v>0.6993758559253256</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>419</v>
@@ -3486,19 +3486,19 @@
         <v>424356</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>399509</v>
+        <v>398488</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>446788</v>
+        <v>450658</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6306940916304595</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5937664230583702</v>
+        <v>0.5922493880634814</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6640340533822615</v>
+        <v>0.6697853157388667</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>850</v>
@@ -3507,19 +3507,19 @@
         <v>870402</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>834970</v>
+        <v>834887</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>905805</v>
+        <v>904067</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6458717949574727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6195800494714854</v>
+        <v>0.6195181672287157</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6721425151674828</v>
+        <v>0.6708524323134739</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>346759</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>313642</v>
+        <v>313027</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>375062</v>
+        <v>376936</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3391516569931989</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.306760723577519</v>
+        <v>0.3061593553053774</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3668333621475338</v>
+        <v>0.3686666111648629</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>430</v>
@@ -3632,19 +3632,19 @@
         <v>450850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>416190</v>
+        <v>418273</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>486376</v>
+        <v>482188</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4322985720665643</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3990647564316708</v>
+        <v>0.4010618943888853</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4663630360661356</v>
+        <v>0.4623472387178136</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>753</v>
@@ -3653,19 +3653,19 @@
         <v>797609</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>753099</v>
+        <v>753419</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>843870</v>
+        <v>844440</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3861869833682686</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3646360166425761</v>
+        <v>0.3647911199343875</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4085858078149027</v>
+        <v>0.4088615495232006</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>675672</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>647369</v>
+        <v>645495</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>708789</v>
+        <v>709404</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6608483430068011</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6331666378524663</v>
+        <v>0.6313333888351372</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.693239276422481</v>
+        <v>0.6938406446946227</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>547</v>
@@ -3703,19 +3703,19 @@
         <v>592063</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>556537</v>
+        <v>560725</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>626723</v>
+        <v>624640</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5677014279334357</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5336369639338645</v>
+        <v>0.5376527612821863</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6009352435683292</v>
+        <v>0.5989381056111147</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1175</v>
@@ -3724,19 +3724,19 @@
         <v>1267735</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1221474</v>
+        <v>1220904</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1312245</v>
+        <v>1311925</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6138130166317314</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5914141921850972</v>
+        <v>0.5911384504767995</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6353639833574238</v>
+        <v>0.6352088800656126</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>235754</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>210854</v>
+        <v>209776</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>262211</v>
+        <v>262563</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3103857469358792</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2776034991238649</v>
+        <v>0.2761833376539907</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3452184488987619</v>
+        <v>0.3456810714884615</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>300</v>
@@ -3849,19 +3849,19 @@
         <v>313479</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>285866</v>
+        <v>287660</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>341949</v>
+        <v>342605</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3993305941411391</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3641555560251198</v>
+        <v>0.3664410181773655</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.435597304995113</v>
+        <v>0.4364334780982191</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>519</v>
@@ -3870,19 +3870,19 @@
         <v>549233</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>513610</v>
+        <v>512208</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>592695</v>
+        <v>593191</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3555911979080333</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3325279743037318</v>
+        <v>0.3316200327645217</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3837295736262717</v>
+        <v>0.3840511898300732</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>523798</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>497341</v>
+        <v>496989</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>548698</v>
+        <v>549776</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6896142530641208</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.654781551101238</v>
+        <v>0.6543189285115381</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7223965008761351</v>
+        <v>0.7238166623460094</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>436</v>
@@ -3920,19 +3920,19 @@
         <v>471532</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>443062</v>
+        <v>442406</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>499145</v>
+        <v>497351</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.600669405858861</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.564402695004887</v>
+        <v>0.5635665219017808</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6358444439748803</v>
+        <v>0.6335589818226346</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>913</v>
@@ -3941,19 +3941,19 @@
         <v>995330</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>951868</v>
+        <v>951372</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1030953</v>
+        <v>1032355</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6444088020919666</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6162704263737283</v>
+        <v>0.6159488101699268</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6674720256962682</v>
+        <v>0.6683799672354783</v>
       </c>
     </row>
     <row r="12">
@@ -4045,19 +4045,19 @@
         <v>251424</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>226165</v>
+        <v>225055</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>281032</v>
+        <v>276327</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.268166089266986</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2412254184407305</v>
+        <v>0.2400419869571544</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2997458584241867</v>
+        <v>0.2947276042015389</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>339</v>
@@ -4066,19 +4066,19 @@
         <v>360792</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>331876</v>
+        <v>330567</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>394939</v>
+        <v>392311</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.345659337351262</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3179564706150399</v>
+        <v>0.3167023654440033</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.378374439017883</v>
+        <v>0.375856782730379</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>587</v>
@@ -4087,19 +4087,19 @@
         <v>612216</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>571629</v>
+        <v>569275</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>652038</v>
+        <v>654706</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3089897644315018</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2885052225216734</v>
+        <v>0.2873171932954278</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3290884103198072</v>
+        <v>0.3304348157860145</v>
       </c>
     </row>
     <row r="14">
@@ -4116,19 +4116,19 @@
         <v>686143</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>656535</v>
+        <v>661240</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>711402</v>
+        <v>712512</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.731833910733014</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.700254141575813</v>
+        <v>0.7052723957984606</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7587745815592694</v>
+        <v>0.7599580130428453</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>620</v>
@@ -4137,19 +4137,19 @@
         <v>682987</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>648840</v>
+        <v>651468</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>711903</v>
+        <v>713212</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6543406626487379</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6216255609821171</v>
+        <v>0.6241432172696211</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6820435293849614</v>
+        <v>0.6832976345559969</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1304</v>
@@ -4158,19 +4158,19 @@
         <v>1369130</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1329308</v>
+        <v>1326640</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1409717</v>
+        <v>1412071</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6910102355684983</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6709115896801928</v>
+        <v>0.6695651842139855</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7114947774783265</v>
+        <v>0.7126828067045723</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>1062691</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1010897</v>
+        <v>1009018</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1117510</v>
+        <v>1112442</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3130762944019242</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2978175280825964</v>
+        <v>0.2972640182538714</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3292264321397705</v>
+        <v>0.3277334337782356</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1316</v>
@@ -4283,19 +4283,19 @@
         <v>1373604</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1316883</v>
+        <v>1315638</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1437430</v>
+        <v>1437138</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3875265367147412</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3715240385025101</v>
+        <v>0.3711729542213033</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4055332440909303</v>
+        <v>0.4054509934336432</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2327</v>
@@ -4304,19 +4304,19 @@
         <v>2436295</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2356779</v>
+        <v>2356518</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2515608</v>
+        <v>2519187</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3511071497173628</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.339647687970836</v>
+        <v>0.3396100978662916</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3625373781421774</v>
+        <v>0.3630531920100895</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>2331659</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>2276840</v>
+        <v>2281908</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>2383453</v>
+        <v>2385332</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6869237055980758</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6707735678602293</v>
+        <v>0.6722665662217645</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.702182471917403</v>
+        <v>0.7027359817461286</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2022</v>
@@ -4354,19 +4354,19 @@
         <v>2170938</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>2107112</v>
+        <v>2107404</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2227659</v>
+        <v>2228904</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6124734632852589</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5944667559090699</v>
+        <v>0.5945490065663568</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6284759614974899</v>
+        <v>0.6288270457786966</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>4242</v>
@@ -4375,19 +4375,19 @@
         <v>4502597</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>4423284</v>
+        <v>4419705</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4582113</v>
+        <v>4582374</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6488928502826372</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6374626218578228</v>
+        <v>0.6369468079899105</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6603523120291643</v>
+        <v>0.6603899021337084</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>90349</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>73669</v>
+        <v>72503</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111507</v>
+        <v>110001</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1308062196801937</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1066565933033092</v>
+        <v>0.1049690048587724</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1614380289277394</v>
+        <v>0.1592582979746244</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>212</v>
@@ -4740,19 +4740,19 @@
         <v>126115</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109899</v>
+        <v>109746</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>144450</v>
+        <v>145825</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1717763807004718</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1496895322816803</v>
+        <v>0.1494808021617266</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1967499037814588</v>
+        <v>0.198623173830073</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>311</v>
@@ -4761,19 +4761,19 @@
         <v>216464</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>192183</v>
+        <v>193991</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>243827</v>
+        <v>244941</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1519162550224003</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1348757205015618</v>
+        <v>0.1361443896351566</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1711202396808771</v>
+        <v>0.1719021339645008</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>600361</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>579203</v>
+        <v>580709</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>617041</v>
+        <v>618207</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8691937803198063</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8385619710722605</v>
+        <v>0.8407417020253758</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8933434066966908</v>
+        <v>0.895030995141228</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1029</v>
@@ -4811,19 +4811,19 @@
         <v>608065</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>589730</v>
+        <v>588355</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>624281</v>
+        <v>624434</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.8282236192995281</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8032500962185409</v>
+        <v>0.8013768261699271</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8503104677183195</v>
+        <v>0.8505191978382733</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1660</v>
@@ -4832,19 +4832,19 @@
         <v>1208425</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1181062</v>
+        <v>1179948</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1232706</v>
+        <v>1230898</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.8480837449775998</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.8288797603191229</v>
+        <v>0.8280978660354991</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.865124279498438</v>
+        <v>0.8638556103648434</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>175476</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>149019</v>
+        <v>146217</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>205133</v>
+        <v>202735</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1672921579645489</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.142069084282945</v>
+        <v>0.1393982457788081</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1955660148200285</v>
+        <v>0.1932804900696482</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>343</v>
@@ -4957,19 +4957,19 @@
         <v>243790</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>220178</v>
+        <v>220713</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>268651</v>
+        <v>271164</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2275280747377134</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2054908971499903</v>
+        <v>0.2059901066745499</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.250729990785392</v>
+        <v>0.2530756227618216</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>506</v>
@@ -4978,19 +4978,19 @@
         <v>419266</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>382499</v>
+        <v>386612</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>456514</v>
+        <v>460222</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1977305173506137</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1803905605049769</v>
+        <v>0.1823305221811375</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2152970556776988</v>
+        <v>0.2170456855517373</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>873441</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>843784</v>
+        <v>846182</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>899898</v>
+        <v>902700</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8327078420354512</v>
+        <v>0.8327078420354511</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8044339851799713</v>
+        <v>0.8067195099303519</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8579309157170547</v>
+        <v>0.860601754221192</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1174</v>
@@ -5028,19 +5028,19 @@
         <v>827684</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>802823</v>
+        <v>800310</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>851296</v>
+        <v>850761</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.7724719252622866</v>
+        <v>0.7724719252622865</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7492700092146082</v>
+        <v>0.7469243772381784</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.79450910285001</v>
+        <v>0.7940098933254501</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1975</v>
@@ -5049,19 +5049,19 @@
         <v>1701125</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1663877</v>
+        <v>1660169</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1737892</v>
+        <v>1733779</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8022694826493861</v>
+        <v>0.8022694826493862</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7847029443223013</v>
+        <v>0.7829543144482626</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8196094394950232</v>
+        <v>0.8176694778188626</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>93059</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>73060</v>
+        <v>72109</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>116405</v>
+        <v>113612</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1158790159475163</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.09097562907405833</v>
+        <v>0.08979087154265059</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1449489186838593</v>
+        <v>0.1414721900118284</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>174</v>
@@ -5174,19 +5174,19 @@
         <v>142353</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>122686</v>
+        <v>123463</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>163251</v>
+        <v>163965</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1752557661850292</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1510429863508555</v>
+        <v>0.1519993487846376</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2009845347281683</v>
+        <v>0.2018624755571943</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>253</v>
@@ -5195,19 +5195,19 @@
         <v>235412</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>208356</v>
+        <v>207923</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>267051</v>
+        <v>264465</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1457362160098981</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1289864177547288</v>
+        <v>0.1287182943086948</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1653224727717918</v>
+        <v>0.1637217355094767</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>710014</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>686668</v>
+        <v>689461</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>730013</v>
+        <v>730964</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.8841209840524837</v>
+        <v>0.8841209840524836</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.8550510813161406</v>
+        <v>0.8585278099881712</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9090243709259416</v>
+        <v>0.9102091284573495</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>873</v>
@@ -5245,19 +5245,19 @@
         <v>669906</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>649008</v>
+        <v>648294</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>689573</v>
+        <v>688796</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8247442338149708</v>
+        <v>0.8247442338149709</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7990154652718318</v>
+        <v>0.7981375244428055</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8489570136491444</v>
+        <v>0.8480006512153625</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1470</v>
@@ -5266,19 +5266,19 @@
         <v>1379920</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1348281</v>
+        <v>1350867</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1406976</v>
+        <v>1407409</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8542637839901019</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8346775272282083</v>
+        <v>0.836278264490523</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.8710135822452713</v>
+        <v>0.871281705691305</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>119991</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>101079</v>
+        <v>100689</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>144413</v>
+        <v>142841</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1211952869797886</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1020933734083726</v>
+        <v>0.1016992279108617</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1458624641323436</v>
+        <v>0.1442752977630606</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>230</v>
@@ -5391,19 +5391,19 @@
         <v>161496</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>143088</v>
+        <v>141462</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>182982</v>
+        <v>182722</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1443163352865686</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1278670226789207</v>
+        <v>0.1264138337149612</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1635168221174193</v>
+        <v>0.1632846758211977</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>358</v>
@@ -5412,19 +5412,19 @@
         <v>281487</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>254868</v>
+        <v>253436</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>313558</v>
+        <v>311317</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1334627781480958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1208416073638235</v>
+        <v>0.1201626672597653</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1486687995619522</v>
+        <v>0.1476061142121392</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>870071</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>845649</v>
+        <v>847221</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>888983</v>
+        <v>889373</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8788047130202115</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8541375358676562</v>
+        <v>0.8557247022369396</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8979066265916273</v>
+        <v>0.8983007720891384</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1332</v>
@@ -5462,19 +5462,19 @@
         <v>957545</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>936059</v>
+        <v>936319</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>975953</v>
+        <v>977579</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.8556836647134315</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.8364831778825805</v>
+        <v>0.8367153241788023</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8721329773210793</v>
+        <v>0.8735861662850394</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2210</v>
@@ -5483,19 +5483,19 @@
         <v>1827617</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1795546</v>
+        <v>1797787</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1854236</v>
+        <v>1855668</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.8665372218519044</v>
+        <v>0.8665372218519043</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8513312004380474</v>
+        <v>0.8523938857878607</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8791583926361765</v>
+        <v>0.8798373327402348</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>478875</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>435504</v>
+        <v>433463</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>522642</v>
+        <v>524341</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.135552554368907</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1232757738372352</v>
+        <v>0.1226979638777153</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1479414703008629</v>
+        <v>0.1484224299347068</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>959</v>
@@ -5608,19 +5608,19 @@
         <v>673754</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>630607</v>
+        <v>630275</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>716361</v>
+        <v>716454</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.180295013380705</v>
+        <v>0.1802950133807049</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1687488209205183</v>
+        <v>0.1686600352278033</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.1916966172411666</v>
+        <v>0.1917213703148506</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1428</v>
@@ -5629,19 +5629,19 @@
         <v>1152629</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1097343</v>
+        <v>1094610</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1221186</v>
+        <v>1217158</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1585521484238492</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1509471328248174</v>
+        <v>0.1505712127971679</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1679826492599588</v>
+        <v>0.1674285552091248</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3053887</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3010120</v>
+        <v>3008421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3097258</v>
+        <v>3099299</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8644474456310932</v>
+        <v>0.8644474456310931</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.8520585296991366</v>
+        <v>0.8515775700652937</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8767242261627648</v>
+        <v>0.8773020361222855</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4408</v>
@@ -5679,19 +5679,19 @@
         <v>3063200</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3020593</v>
+        <v>3020500</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3106347</v>
+        <v>3106679</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.8197049866192951</v>
+        <v>0.819704986619295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8083033827588335</v>
+        <v>0.8082786296851495</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8312511790794818</v>
+        <v>0.8313399647721966</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>7315</v>
@@ -5700,19 +5700,19 @@
         <v>6117087</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6048530</v>
+        <v>6052558</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6172373</v>
+        <v>6175106</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.8414478515761508</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.8320173507400412</v>
+        <v>0.8325714447908753</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8490528671751828</v>
+        <v>0.8494287872028322</v>
       </c>
     </row>
     <row r="18">
